--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1757222.348405622</v>
+        <v>1843455.57931678</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584566</v>
+        <v>6486630.972584567</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8065189.102018273</v>
+        <v>8065189.102018276</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.23079720424555</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>71.85603302889007</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>73.62611191793386</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742117</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>16.94276760528493</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.53003894134028</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>22.52222978384857</v>
       </c>
       <c r="G14" t="n">
-        <v>314.9282947480404</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>86.20197997995353</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7498319512185</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
         <v>225.8112657109832</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.2032718007891</v>
+        <v>118.2694521832859</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.015391806261341</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>5.992534413201819</v>
       </c>
     </row>
     <row r="18">
@@ -1971,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T18" t="n">
-        <v>120.7498319512181</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>57.4544938048976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>200.1983439946918</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>130.1572974218956</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>294.3096110082394</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
         <v>67.96895394968166</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2165,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891896</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>73.62611191793391</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.3657483393379</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.54956238479151</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>73.39780021219498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>148.9903857293485</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2335,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>368.0429482955435</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646386</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3657483393378</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
         <v>93.13436112172583</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>84.35310388454315</v>
+        <v>22.12562817722734</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>240.9689388613347</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.48389003165716</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
@@ -2770,16 +2772,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>174.0328142523761</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.35310388454315</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>210.3718522815838</v>
+        <v>349.9727202397341</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>109.6020598503124</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>125.2718543294961</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.285147839345</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>129.3726657847379</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.148942940187196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>144.3107833326062</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>380.0115594666776</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>173.9516364746845</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3354,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>73.6261119179343</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388835</v>
       </c>
       <c r="H36" t="n">
         <v>93.13436112172583</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.71314290177875</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>44.34167800995326</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>293.0852298648387</v>
+        <v>294.5418064083306</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741938</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3639,7 +3641,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V39" t="n">
-        <v>161.3574866739753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.22810184760063</v>
+        <v>116.476462479252</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>218.8177830471932</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>43.79434063456846</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>76.0019650891887</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>104.685909993682</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>247.1176929808274</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>128.5789528195149</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>234.0844621313051</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4107,13 +4109,13 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512181</v>
       </c>
       <c r="U45" t="n">
         <v>225.8112657109832</v>
       </c>
       <c r="V45" t="n">
-        <v>161.3574866739753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>180.541759898376</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>39.20942569739056</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>794.4508901367183</v>
+        <v>898.4217596988037</v>
       </c>
       <c r="C11" t="n">
-        <v>425.4883731963066</v>
+        <v>529.459242758392</v>
       </c>
       <c r="D11" t="n">
-        <v>67.22267458955605</v>
+        <v>529.459242758392</v>
       </c>
       <c r="E11" t="n">
-        <v>67.22267458955605</v>
+        <v>529.459242758392</v>
       </c>
       <c r="F11" t="n">
-        <v>67.22267458955605</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G11" t="n">
-        <v>67.22267458955605</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H11" t="n">
-        <v>67.22267458955605</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870196</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819823</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799474</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549138</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240657</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085905</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837421</v>
+        <v>2418.309594890767</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326144</v>
+        <v>2209.30485637949</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520223</v>
+        <v>1955.719060573568</v>
       </c>
       <c r="V11" t="n">
-        <v>1571.190062176652</v>
+        <v>1624.656173229998</v>
       </c>
       <c r="W11" t="n">
-        <v>1571.190062176652</v>
+        <v>1271.887517959884</v>
       </c>
       <c r="X11" t="n">
-        <v>1571.190062176652</v>
+        <v>898.4217596988037</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.05073020084</v>
+        <v>898.4217596988037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F12" t="n">
         <v>302.1435952757001</v>
@@ -5112,58 +5114,58 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870196</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K12" t="n">
-        <v>413.775532849196</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L12" t="n">
-        <v>701.7398160318585</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M12" t="n">
-        <v>1057.13742028053</v>
+        <v>932.3072952935258</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.349986510835</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O12" t="n">
-        <v>1761.035604224592</v>
+        <v>1636.205479237588</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787595</v>
+        <v>2192.739386952835</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.5732743681857</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C13" t="n">
-        <v>490.5732743681857</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D13" t="n">
-        <v>490.5732743681857</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5732743681857</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F13" t="n">
         <v>473.4593676961807</v>
@@ -5194,55 +5196,55 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870196</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T13" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U13" t="n">
-        <v>1216.323397441273</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V13" t="n">
-        <v>961.638909235386</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="W13" t="n">
-        <v>672.2217391984254</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="X13" t="n">
-        <v>672.2217391984254</v>
+        <v>1489.756275090497</v>
       </c>
       <c r="Y13" t="n">
-        <v>672.2217391984254</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>778.9131223526938</v>
+        <v>458.3558085813387</v>
       </c>
       <c r="C14" t="n">
-        <v>778.9131223526938</v>
+        <v>458.3558085813387</v>
       </c>
       <c r="D14" t="n">
-        <v>778.9131223526938</v>
+        <v>458.3558085813387</v>
       </c>
       <c r="E14" t="n">
-        <v>778.9131223526938</v>
+        <v>72.56755598309451</v>
       </c>
       <c r="F14" t="n">
-        <v>367.9272175630862</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549157</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
@@ -5294,34 +5296,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2281.886707923821</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.886707923821</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V14" t="n">
-        <v>2281.886707923821</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W14" t="n">
-        <v>1929.118052653707</v>
+        <v>1218.42140690654</v>
       </c>
       <c r="X14" t="n">
-        <v>1555.652294392627</v>
+        <v>844.9556486454605</v>
       </c>
       <c r="Y14" t="n">
-        <v>1165.512962416816</v>
+        <v>844.9556486454605</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
         <v>302.1435952757001</v>
@@ -5349,58 +5351,58 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440159</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621911</v>
+        <v>550.7659925046443</v>
       </c>
       <c r="L15" t="n">
-        <v>580.6049013918263</v>
+        <v>838.7302756873069</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.100534384513</v>
+        <v>1434.383601146897</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.5961673772</v>
+        <v>1813.596167377202</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090957</v>
+        <v>2138.281785090959</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852666</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>344.6208700090054</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C16" t="n">
-        <v>344.6208700090054</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D16" t="n">
-        <v>344.6208700090054</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E16" t="n">
-        <v>196.7077764266123</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5452,34 +5454,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T16" t="n">
-        <v>1386.128447054741</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U16" t="n">
-        <v>1097.008661383963</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V16" t="n">
-        <v>842.3241731780762</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="W16" t="n">
-        <v>552.9070031411156</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="X16" t="n">
-        <v>344.6208700090054</v>
+        <v>1489.756275090497</v>
       </c>
       <c r="Y16" t="n">
-        <v>344.6208700090054</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>441.6822348666041</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="C17" t="n">
-        <v>441.6822348666041</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="D17" t="n">
-        <v>441.6822348666041</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="E17" t="n">
-        <v>55.89398226835988</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870196</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870196</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326144</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U17" t="n">
         <v>1902.252949520223</v>
       </c>
       <c r="V17" t="n">
-        <v>1571.190062176652</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W17" t="n">
-        <v>1218.421406906538</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X17" t="n">
-        <v>1218.421406906538</v>
+        <v>844.9556486454587</v>
       </c>
       <c r="Y17" t="n">
-        <v>828.2820749307259</v>
+        <v>838.9025835816185</v>
       </c>
     </row>
     <row r="18">
@@ -5580,46 +5582,46 @@
         <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>550.7659925046441</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L18" t="n">
-        <v>838.7302756873066</v>
+        <v>905.4410408548783</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.127879935978</v>
+        <v>1260.83864510355</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.340446166283</v>
+        <v>1640.051211333855</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025886</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787595</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
         <v>2232.611835734</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>937.1985917043911</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="C19" t="n">
-        <v>768.2624087764842</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="D19" t="n">
-        <v>768.2624087764842</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870196</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477627</v>
+        <v>955.1183582849488</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>1123.78564187924</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>1395.148129369608</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>1691.650947694422</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907538</v>
+        <v>1986.538208137711</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298602</v>
+        <v>2242.898026528775</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>2438.737456460603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R19" t="n">
-        <v>1505.443183112051</v>
+        <v>2387.114261342224</v>
       </c>
       <c r="S19" t="n">
-        <v>1505.443183112051</v>
+        <v>2190.022821712273</v>
       </c>
       <c r="T19" t="n">
-        <v>1505.443183112051</v>
+        <v>1966.930900562088</v>
       </c>
       <c r="U19" t="n">
-        <v>1505.443183112051</v>
+        <v>1677.81111489131</v>
       </c>
       <c r="V19" t="n">
-        <v>1447.408340884882</v>
+        <v>1423.126626685423</v>
       </c>
       <c r="W19" t="n">
-        <v>1157.991170847921</v>
+        <v>1133.709456648462</v>
       </c>
       <c r="X19" t="n">
-        <v>1157.991170847921</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.1985917043911</v>
+        <v>931.4889071588746</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1420.460063757291</v>
+        <v>1505.147535883888</v>
       </c>
       <c r="C20" t="n">
-        <v>1051.49754681688</v>
+        <v>1136.185018943477</v>
       </c>
       <c r="D20" t="n">
-        <v>920.0255292190052</v>
+        <v>1136.185018943477</v>
       </c>
       <c r="E20" t="n">
-        <v>534.2372766207609</v>
+        <v>1136.185018943477</v>
       </c>
       <c r="F20" t="n">
-        <v>534.2372766207609</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687844</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.891446435098</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U20" t="n">
-        <v>2490.891446435098</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="V20" t="n">
-        <v>2159.828559091527</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="W20" t="n">
-        <v>1807.059903821413</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="X20" t="n">
-        <v>1807.059903821413</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="Y20" t="n">
-        <v>1807.059903821413</v>
+        <v>1891.74737594801</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416488</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>529.9236849715455</v>
+        <v>531.3276987466002</v>
       </c>
       <c r="L21" t="n">
-        <v>817.887968154208</v>
+        <v>819.2919819292626</v>
       </c>
       <c r="M21" t="n">
-        <v>1434.383601146895</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N21" t="n">
-        <v>1813.596167377199</v>
+        <v>1791.185219170621</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090956</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852665</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T21" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1247.415015300948</v>
+        <v>871.0210681264183</v>
       </c>
       <c r="C22" t="n">
-        <v>1247.415015300948</v>
+        <v>871.0210681264183</v>
       </c>
       <c r="D22" t="n">
-        <v>1247.415015300948</v>
+        <v>720.9044287140825</v>
       </c>
       <c r="E22" t="n">
-        <v>1099.501921718555</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F22" t="n">
-        <v>1099.501921718555</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G22" t="n">
-        <v>931.4889071588736</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H22" t="n">
-        <v>931.4889071588736</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I22" t="n">
-        <v>931.4889071588736</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849479</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879239</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369607</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694422</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.53820813771</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528774</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460602</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.891446435098</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>2490.891446435098</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>2490.891446435098</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.799525284913</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.679739614135</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.995251408248</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W22" t="n">
-        <v>1649.856059274718</v>
+        <v>1319.803198167966</v>
       </c>
       <c r="X22" t="n">
-        <v>1649.856059274718</v>
+        <v>1091.813647269948</v>
       </c>
       <c r="Y22" t="n">
-        <v>1429.063480131188</v>
+        <v>871.0210681264183</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.828674926796</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.828674926796</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="E23" t="n">
-        <v>878.0404223285514</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0545175389437</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -5993,19 +5995,19 @@
         <v>430.2582499382138</v>
       </c>
       <c r="L23" t="n">
-        <v>846.5066693681792</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q23" t="n">
         <v>2548.08420147501</v>
@@ -6014,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>1623.121792163374</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>1623.121792163374</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111471</v>
+        <v>1251.361238329491</v>
       </c>
     </row>
     <row r="24">
@@ -6048,13 +6050,13 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
@@ -6069,25 +6071,25 @@
         <v>110.7085524022812</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204566</v>
+        <v>526.9701224687087</v>
       </c>
       <c r="L24" t="n">
-        <v>925.1390715466764</v>
+        <v>814.9344056513712</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.536675795348</v>
+        <v>1170.332009900043</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.749242025653</v>
+        <v>1549.544576130347</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004222</v>
+        <v>1874.230193844104</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1005.126405072139</v>
+        <v>1304.217995083376</v>
       </c>
       <c r="C25" t="n">
-        <v>1005.126405072139</v>
+        <v>1304.217995083376</v>
       </c>
       <c r="D25" t="n">
-        <v>1005.126405072139</v>
+        <v>1154.101355671041</v>
       </c>
       <c r="E25" t="n">
-        <v>1005.126405072139</v>
+        <v>1154.101355671041</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072139</v>
+        <v>1154.101355671041</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072139</v>
+        <v>1154.101355671041</v>
       </c>
       <c r="H25" t="n">
         <v>1005.126405072139</v>
@@ -6172,25 +6174,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S25" t="n">
-        <v>2367.437504718412</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.345583568227</v>
+        <v>2341.437023198178</v>
       </c>
       <c r="U25" t="n">
-        <v>1855.225797897449</v>
+        <v>2052.3172375274</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.541309691562</v>
+        <v>1797.632749321513</v>
       </c>
       <c r="W25" t="n">
-        <v>1311.124139654601</v>
+        <v>1508.215579284553</v>
       </c>
       <c r="X25" t="n">
-        <v>1225.918984215669</v>
+        <v>1485.866459913616</v>
       </c>
       <c r="Y25" t="n">
-        <v>1005.126405072139</v>
+        <v>1485.866459913616</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>462.2764836765748</v>
+        <v>1507.231643473598</v>
       </c>
       <c r="C26" t="n">
-        <v>462.2764836765748</v>
+        <v>1507.231643473598</v>
       </c>
       <c r="D26" t="n">
-        <v>462.2764836765748</v>
+        <v>1507.231643473598</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2764836765748</v>
+        <v>1121.443390875354</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>710.4574860857465</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>294.69354743377</v>
       </c>
       <c r="H26" t="n">
         <v>51.29057888696726</v>
@@ -6227,25 +6229,25 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681792</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N26" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O26" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P26" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
@@ -6254,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2549.898752397194</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2296.312956591273</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>1965.250069247702</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="W26" t="n">
-        <v>1612.481413977588</v>
+        <v>1880.697401734678</v>
       </c>
       <c r="X26" t="n">
-        <v>1239.015655716508</v>
+        <v>1507.231643473598</v>
       </c>
       <c r="Y26" t="n">
-        <v>848.8763237406965</v>
+        <v>1507.231643473598</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915382</v>
+        <v>72.80815385915338</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K27" t="n">
-        <v>415.2482828074614</v>
+        <v>290.4181578204566</v>
       </c>
       <c r="L27" t="n">
-        <v>703.2125659901239</v>
+        <v>578.3824410031191</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.044584201669</v>
+        <v>933.7800452517906</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.257150431974</v>
+        <v>1312.992611482095</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.942768145731</v>
+        <v>1874.230193844104</v>
       </c>
       <c r="P27" t="n">
-        <v>2245.19853490744</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.29057888696726</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="C28" t="n">
-        <v>51.29057888696726</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="D28" t="n">
-        <v>51.29057888696726</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="E28" t="n">
-        <v>51.29057888696726</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="F28" t="n">
-        <v>51.29057888696726</v>
+        <v>1428.767943839617</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696726</v>
+        <v>1260.754929279936</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072139</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304158</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>1197.423139792505</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977007</v>
+        <v>1468.785627282872</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225152</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.339879865803</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O28" t="n">
-        <v>1362.699698256867</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P28" t="n">
-        <v>1558.539128188696</v>
+        <v>2512.374954373867</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.60167853324</v>
+        <v>2263.660319625537</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.509757383056</v>
+        <v>2040.568398475352</v>
       </c>
       <c r="U28" t="n">
-        <v>901.3899717122773</v>
+        <v>1751.448612804574</v>
       </c>
       <c r="V28" t="n">
-        <v>646.7054835063905</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="W28" t="n">
-        <v>357.2883134694299</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="X28" t="n">
-        <v>272.0831580304974</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.29057888696726</v>
+        <v>1575.657891337528</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1787.78977230843</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.827255368018</v>
+        <v>1864.503540064381</v>
       </c>
       <c r="D29" t="n">
-        <v>1060.561556761267</v>
+        <v>1506.23784145763</v>
       </c>
       <c r="E29" t="n">
-        <v>674.7733041630231</v>
+        <v>1120.449588859386</v>
       </c>
       <c r="F29" t="n">
-        <v>263.7873993734156</v>
+        <v>709.4636840697783</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H29" t="n">
         <v>51.29057888696726</v>
@@ -6467,7 +6469,7 @@
         <v>430.2582499382138</v>
       </c>
       <c r="L29" t="n">
-        <v>774.34192141318</v>
+        <v>846.5066693681792</v>
       </c>
       <c r="M29" t="n">
         <v>1261.035489153923</v>
@@ -6497,16 +6499,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="X29" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.389612372551</v>
+        <v>2233.466057004792</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>127.7070010306079</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K30" t="n">
-        <v>307.4166064487833</v>
+        <v>552.2387424629094</v>
       </c>
       <c r="L30" t="n">
-        <v>595.3808896314458</v>
+        <v>840.2030256455719</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.101803357666</v>
+        <v>1195.600629894243</v>
       </c>
       <c r="N30" t="n">
-        <v>1864.822717083885</v>
+        <v>1574.813196124548</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>1899.498813838305</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.9489277385075</v>
+        <v>367.2166870290418</v>
       </c>
       <c r="C31" t="n">
-        <v>330.0127448106006</v>
+        <v>367.2166870290418</v>
       </c>
       <c r="D31" t="n">
-        <v>330.0127448106006</v>
+        <v>367.2166870290418</v>
       </c>
       <c r="E31" t="n">
-        <v>330.0127448106006</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F31" t="n">
-        <v>330.0127448106006</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9997302509192</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
         <v>51.29057888696726</v>
@@ -6649,22 +6651,22 @@
         <v>1413.60167853324</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.509757383056</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="U31" t="n">
-        <v>901.3899717122773</v>
+        <v>1287.064451937789</v>
       </c>
       <c r="V31" t="n">
-        <v>901.3899717122773</v>
+        <v>1287.064451937789</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3899717122773</v>
+        <v>997.6472819008289</v>
       </c>
       <c r="X31" t="n">
-        <v>901.3899717122773</v>
+        <v>769.6577310028116</v>
       </c>
       <c r="Y31" t="n">
-        <v>680.5973925687472</v>
+        <v>548.8651518592815</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1205.319275536073</v>
+        <v>1140.682341440213</v>
       </c>
       <c r="C32" t="n">
-        <v>836.3567585956609</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="D32" t="n">
-        <v>836.3567585956609</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="E32" t="n">
-        <v>450.5685059974167</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="F32" t="n">
-        <v>450.5685059974167</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H32" t="n">
         <v>51.29057888696726</v>
@@ -6698,16 +6700,16 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952477</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382138</v>
+        <v>502.422997893213</v>
       </c>
       <c r="L32" t="n">
-        <v>774.34192141318</v>
+        <v>846.5066693681792</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198923</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N32" t="n">
         <v>1686.885626999171</v>
@@ -6725,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2355.524205837086</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2355.524205837086</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2355.524205837086</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W32" t="n">
-        <v>2355.524205837086</v>
+        <v>1514.148099701293</v>
       </c>
       <c r="X32" t="n">
-        <v>1982.058447576006</v>
+        <v>1140.682341440213</v>
       </c>
       <c r="Y32" t="n">
-        <v>1591.919115600194</v>
+        <v>1140.682341440213</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2482828074614</v>
+        <v>552.2387424629094</v>
       </c>
       <c r="L33" t="n">
-        <v>703.2125659901239</v>
+        <v>840.2030256455719</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.610170238795</v>
+        <v>1195.600629894243</v>
       </c>
       <c r="N33" t="n">
-        <v>1679.257150431974</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.942768145731</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>502.4861139353327</v>
+        <v>1258.669926178944</v>
       </c>
       <c r="C34" t="n">
-        <v>502.4861139353327</v>
+        <v>1258.669926178944</v>
       </c>
       <c r="D34" t="n">
-        <v>352.3694745229969</v>
+        <v>1258.669926178944</v>
       </c>
       <c r="E34" t="n">
-        <v>204.4563809406038</v>
+        <v>1258.669926178944</v>
       </c>
       <c r="F34" t="n">
-        <v>200.2655294858693</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="G34" t="n">
-        <v>200.2655294858693</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072139</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304158</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>1197.423139792505</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977007</v>
+        <v>1468.785627282872</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225152</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865803</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256867</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P34" t="n">
-        <v>1558.539128188696</v>
+        <v>2512.374954373867</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="S34" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.601197013007</v>
+        <v>2237.659838105304</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.601197013007</v>
+        <v>1948.540052434525</v>
       </c>
       <c r="V34" t="n">
-        <v>1132.91670880712</v>
+        <v>1693.855564228639</v>
       </c>
       <c r="W34" t="n">
-        <v>1132.91670880712</v>
+        <v>1404.438394191678</v>
       </c>
       <c r="X34" t="n">
-        <v>904.9271579091026</v>
+        <v>1404.438394191678</v>
       </c>
       <c r="Y34" t="n">
-        <v>684.1345787655724</v>
+        <v>1258.669926178944</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>945.2231814103684</v>
+        <v>1518.28161768693</v>
       </c>
       <c r="C35" t="n">
-        <v>945.2231814103684</v>
+        <v>1149.319100746518</v>
       </c>
       <c r="D35" t="n">
-        <v>945.2231814103684</v>
+        <v>1149.319100746518</v>
       </c>
       <c r="E35" t="n">
-        <v>945.2231814103684</v>
+        <v>1149.319100746518</v>
       </c>
       <c r="F35" t="n">
-        <v>534.2372766207609</v>
+        <v>738.3331959569105</v>
       </c>
       <c r="G35" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870196</v>
@@ -6965,22 +6967,22 @@
         <v>2490.891446435098</v>
       </c>
       <c r="T35" t="n">
-        <v>2315.182722723296</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="U35" t="n">
-        <v>2061.596926917374</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="V35" t="n">
-        <v>2061.596926917374</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="W35" t="n">
-        <v>1708.82827164726</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="X35" t="n">
-        <v>1335.36251338618</v>
+        <v>1908.420949662741</v>
       </c>
       <c r="Y35" t="n">
-        <v>945.2231814103684</v>
+        <v>1518.28161768693</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7004,7 @@
         <v>376.5134052938155</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207005</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
@@ -7014,25 +7016,25 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K36" t="n">
-        <v>560.6342506504913</v>
+        <v>453.3326245554443</v>
       </c>
       <c r="L36" t="n">
-        <v>848.5985338331537</v>
+        <v>741.2969077381068</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.996138081825</v>
+        <v>1096.694511986778</v>
       </c>
       <c r="N36" t="n">
-        <v>1583.20870431213</v>
+        <v>1475.907078217083</v>
       </c>
       <c r="O36" t="n">
-        <v>1907.894322025887</v>
+        <v>1800.59269593084</v>
       </c>
       <c r="P36" t="n">
-        <v>2149.150088787596</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q36" t="n">
         <v>2468.480498228519</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.0383784182896</v>
+        <v>348.9094189399397</v>
       </c>
       <c r="C37" t="n">
-        <v>252.0383784182896</v>
+        <v>348.9094189399397</v>
       </c>
       <c r="D37" t="n">
-        <v>252.0383784182896</v>
+        <v>198.792779527604</v>
       </c>
       <c r="E37" t="n">
-        <v>252.0383784182896</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F37" t="n">
         <v>198.792779527604</v>
@@ -7129,16 +7131,16 @@
         <v>796.1400366611371</v>
       </c>
       <c r="V37" t="n">
-        <v>541.4555484552502</v>
+        <v>751.3504629137095</v>
       </c>
       <c r="W37" t="n">
-        <v>252.0383784182896</v>
+        <v>751.3504629137095</v>
       </c>
       <c r="X37" t="n">
-        <v>252.0383784182896</v>
+        <v>751.3504629137095</v>
       </c>
       <c r="Y37" t="n">
-        <v>252.0383784182896</v>
+        <v>530.5578837701794</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1142.637673048714</v>
+        <v>1174.084648540317</v>
       </c>
       <c r="C38" t="n">
-        <v>1142.637673048714</v>
+        <v>1174.084648540317</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165537</v>
+        <v>876.567672370286</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183095</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870196</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G38" t="n">
         <v>49.81782892870196</v>
@@ -7172,10 +7174,10 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819831</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L38" t="n">
         <v>772.8691714549145</v>
@@ -7202,22 +7204,22 @@
         <v>2490.891446435098</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435098</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="U38" t="n">
-        <v>2237.305650629176</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="V38" t="n">
-        <v>1906.242763285606</v>
+        <v>1950.82382058025</v>
       </c>
       <c r="W38" t="n">
-        <v>1906.242763285606</v>
+        <v>1950.82382058025</v>
       </c>
       <c r="X38" t="n">
-        <v>1532.777005024526</v>
+        <v>1950.82382058025</v>
       </c>
       <c r="Y38" t="n">
-        <v>1142.637673048714</v>
+        <v>1560.684488604439</v>
       </c>
     </row>
     <row r="39">
@@ -7251,40 +7253,40 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310207</v>
+        <v>166.0525266765129</v>
       </c>
       <c r="K39" t="n">
-        <v>675.5961174916488</v>
+        <v>345.7621320946882</v>
       </c>
       <c r="L39" t="n">
-        <v>963.5604006743113</v>
+        <v>633.7264152773507</v>
       </c>
       <c r="M39" t="n">
-        <v>1318.958004922983</v>
+        <v>989.1240195260222</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.170571153287</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.856188867044</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646086</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435098</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
         <v>1769.367539915405</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.81782892870196</v>
+        <v>792.5121900364234</v>
       </c>
       <c r="C40" t="n">
-        <v>49.81782892870196</v>
+        <v>623.5760071085165</v>
       </c>
       <c r="D40" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="E40" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="F40" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490677</v>
@@ -7357,25 +7359,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T40" t="n">
-        <v>1189.03700742479</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U40" t="n">
-        <v>899.9172217540118</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V40" t="n">
-        <v>645.232733548125</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W40" t="n">
-        <v>355.8155635111644</v>
+        <v>1319.803198167965</v>
       </c>
       <c r="X40" t="n">
-        <v>127.826012613147</v>
+        <v>1091.813647269948</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.81782892870196</v>
+        <v>974.1606548666631</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.291606370976</v>
+        <v>1991.377725576341</v>
       </c>
       <c r="C41" t="n">
-        <v>1735.329089430564</v>
+        <v>1622.41520863593</v>
       </c>
       <c r="D41" t="n">
-        <v>1377.063390823814</v>
+        <v>1264.149510029179</v>
       </c>
       <c r="E41" t="n">
-        <v>991.2751382255694</v>
+        <v>878.3612574309348</v>
       </c>
       <c r="F41" t="n">
-        <v>770.2470745415359</v>
+        <v>467.3753526413272</v>
       </c>
       <c r="G41" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819826</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799478</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
@@ -7424,10 +7426,10 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q41" t="n">
         <v>2474.446703561745</v>
@@ -7436,25 +7438,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="W41" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="X41" t="n">
-        <v>2490.891446435098</v>
+        <v>1991.377725576341</v>
       </c>
       <c r="Y41" t="n">
-        <v>2490.891446435098</v>
+        <v>1991.377725576341</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
         <v>607.9156082542706</v>
@@ -7488,22 +7490,22 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621912</v>
+        <v>531.3276987465996</v>
       </c>
       <c r="L42" t="n">
-        <v>905.441040854878</v>
+        <v>819.2919819292621</v>
       </c>
       <c r="M42" t="n">
-        <v>1260.838645103549</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.051211333854</v>
+        <v>1791.18521917062</v>
       </c>
       <c r="O42" t="n">
-        <v>1964.736829047611</v>
+        <v>2115.870836884377</v>
       </c>
       <c r="P42" t="n">
         <v>2357.126603646086</v>
@@ -7515,25 +7517,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>364.7207909862938</v>
+        <v>431.1509288934658</v>
       </c>
       <c r="C43" t="n">
-        <v>364.7207909862938</v>
+        <v>262.2147459655589</v>
       </c>
       <c r="D43" t="n">
-        <v>364.7207909862938</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862938</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870196</v>
@@ -7594,25 +7596,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054741</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.008661383963</v>
+        <v>1123.009142904196</v>
       </c>
       <c r="V43" t="n">
-        <v>842.3241731780762</v>
+        <v>1123.009142904196</v>
       </c>
       <c r="W43" t="n">
-        <v>592.7103418843111</v>
+        <v>833.5919728672357</v>
       </c>
       <c r="X43" t="n">
-        <v>364.7207909862938</v>
+        <v>833.5919728672357</v>
       </c>
       <c r="Y43" t="n">
-        <v>364.7207909862938</v>
+        <v>612.7993937237055</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>793.8717801336967</v>
+        <v>1392.233655089252</v>
       </c>
       <c r="C44" t="n">
-        <v>793.8717801336967</v>
+        <v>1392.233655089252</v>
       </c>
       <c r="D44" t="n">
-        <v>435.6060815269462</v>
+        <v>1392.233655089252</v>
       </c>
       <c r="E44" t="n">
-        <v>49.81782892870196</v>
+        <v>1006.445402491008</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870196</v>
+        <v>595.4594977014006</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870196</v>
+        <v>179.695559049424</v>
       </c>
       <c r="H44" t="n">
         <v>49.81782892870196</v>
@@ -7673,25 +7675,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435098</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U44" t="n">
-        <v>2254.442494787315</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="V44" t="n">
-        <v>1923.379607443744</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="W44" t="n">
-        <v>1570.61095217363</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="X44" t="n">
-        <v>1570.61095217363</v>
+        <v>1782.372987065064</v>
       </c>
       <c r="Y44" t="n">
-        <v>1180.471620197819</v>
+        <v>1392.233655089252</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J45" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>288.9454078621912</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L45" t="n">
-        <v>576.9096910448537</v>
+        <v>701.7398160318585</v>
       </c>
       <c r="M45" t="n">
-        <v>932.3072952935252</v>
+        <v>1318.235449024545</v>
       </c>
       <c r="N45" t="n">
-        <v>1521.78615209827</v>
+        <v>1697.44801525485</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.281785090956</v>
+        <v>2022.133632968607</v>
       </c>
       <c r="P45" t="n">
-        <v>2379.537551852665</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R45" t="n">
         <v>2490.891446435098</v>
@@ -7755,10 +7757,10 @@
         <v>2354.581362957452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V45" t="n">
         <v>1769.367539915405</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>535.7419770151922</v>
+        <v>365.6439593545192</v>
       </c>
       <c r="C46" t="n">
-        <v>366.8057940872853</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="D46" t="n">
-        <v>366.8057940872853</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="E46" t="n">
-        <v>366.8057940872853</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F46" t="n">
-        <v>366.8057940872853</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G46" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870196</v>
@@ -7828,28 +7830,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1085.259822331915</v>
+        <v>1426.854954166162</v>
       </c>
       <c r="U46" t="n">
-        <v>796.1400366611371</v>
+        <v>1137.735168495384</v>
       </c>
       <c r="V46" t="n">
-        <v>756.5345561587224</v>
+        <v>883.0506802894972</v>
       </c>
       <c r="W46" t="n">
-        <v>756.5345561587224</v>
+        <v>593.6335102525366</v>
       </c>
       <c r="X46" t="n">
-        <v>756.5345561587224</v>
+        <v>365.6439593545192</v>
       </c>
       <c r="Y46" t="n">
-        <v>535.7419770151922</v>
+        <v>365.6439593545192</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>148.3421391932271</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>188.6850150503357</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>3.732535704012832</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697125</v>
+        <v>242.6825466776955</v>
       </c>
       <c r="N15" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053384</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>331.8498482929539</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.967937521057138</v>
+        <v>152.660613976532</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4124011205598</v>
+        <v>118.7395615125294</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>263.7353825697124</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>72.89368480302954</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>72.89368480302923</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>238.9413784325779</v>
       </c>
       <c r="L24" t="n">
-        <v>350.25922277127</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7822457220323</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>7.177264930046988</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>243.873145417044</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>238.9413784325779</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>72.89368480302954</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302949</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>17.1701501296229</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>315.5762314807236</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.89368480302946</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>243.873145417044</v>
+        <v>82.86162232408736</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>148.3421391932276</v>
+        <v>166.0476936295486</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>57.39063053787577</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.6798654165476</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>93.95418991649785</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>118.7395615125289</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8498482929538</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>152.6606139765314</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>263.7353825697124</v>
       </c>
       <c r="N45" t="n">
-        <v>212.3901924994342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>294.7575911908382</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>94.68404435936384</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
@@ -23276,7 +23278,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>50.73815674543611</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.93144994281003</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.44310047544769</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>128.4782804176463</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1796164476969</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>384.3538159578629</v>
       </c>
       <c r="G14" t="n">
-        <v>96.6780045174163</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968169</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717002</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23580,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>71.44310047544741</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>71.44310047544951</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>19.50638358824807</v>
+        <v>107.4402032057513</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>400.8606539354501</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>380.2454042428517</v>
       </c>
     </row>
     <row r="18">
@@ -23859,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T18" t="n">
-        <v>71.44310047544997</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>194.6831495189304</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>25.51131139434534</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>224.5257441987874</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>112.566434733472</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24051,13 +24053,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>71.44310047544997</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.88440026177766</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>213.125198124396</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>216.2825060416591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>18.19499036051008</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24412,7 +24414,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>141.356551504494</v>
+        <v>203.5840272118098</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>60.64971502991418</v>
       </c>
       <c r="I26" t="n">
         <v>67.96895394968166</v>
@@ -24494,10 +24496,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>192.4308010945073</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>78.10482907145195</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>141.356551504494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>201.2344469838729</v>
+        <v>61.63357902572261</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>67.96895394968166</v>
@@ -24737,7 +24739,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.88314124260062</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
         <v>105.5870378728063</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>160.9567334845743</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>16.32115142611173</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>67.96895394968166</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>219.8683029326751</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>141.272105082744</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>195.1205252336517</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>74.27387001948856</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>31.59473979877913</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,16 +25207,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>32.96305465147989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25242,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>71.44310047544958</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.44310047544957</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>92.70790512115249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>207.7959653138747</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>61.59781175584425</v>
+        <v>60.14123521235234</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25442,10 +25444,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.44310047544953</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.3565515044942</v>
+        <v>102.1081908728428</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>188.0582626945182</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>367.8119586308882</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>71.44310047545005</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>43.92956302453034</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>39.40530535576357</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>173.039701071734</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968166</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.96547571655717</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25995,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>71.44310047544997</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40.31924204030679</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>212.9282176264375</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>622459.4348678639</v>
+        <v>622459.4348678644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622459.434867864</v>
+        <v>622459.4348678645</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622459.434867864</v>
+        <v>622459.4348678641</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622459.4348678639</v>
+        <v>622459.434867864</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634955.030682906</v>
+        <v>634955.0306829059</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634955.030682906</v>
+        <v>634955.0306829059</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634955.0306829059</v>
+        <v>634955.030682906</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622459.4348678639</v>
+        <v>622459.434867864</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622459.434867864</v>
+        <v>622459.4348678639</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592058</v>
       </c>
       <c r="F2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592057</v>
       </c>
       <c r="G2" t="n">
-        <v>451767.5568592057</v>
+        <v>451767.5568592055</v>
       </c>
       <c r="H2" t="n">
         <v>451767.5568592054</v>
       </c>
       <c r="I2" t="n">
+        <v>458304.6005527089</v>
+      </c>
+      <c r="J2" t="n">
         <v>458304.600552709</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>458304.6005527092</v>
       </c>
-      <c r="K2" t="n">
-        <v>458304.6005527091</v>
-      </c>
       <c r="L2" t="n">
-        <v>458304.6005527091</v>
+        <v>458304.6005527092</v>
       </c>
       <c r="M2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592055</v>
       </c>
       <c r="N2" t="n">
-        <v>451767.5568592053</v>
+        <v>451767.5568592056</v>
       </c>
       <c r="O2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592055</v>
       </c>
       <c r="P2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.5793761242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648348</v>
+        <v>4895.439270648287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.338246859</v>
+        <v>150597.3382468586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26426,19 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>20610.62669540529</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="F4" t="n">
+        <v>20610.62669540533</v>
+      </c>
+      <c r="G4" t="n">
         <v>20610.62669540531</v>
       </c>
-      <c r="G4" t="n">
-        <v>20610.62669540528</v>
-      </c>
       <c r="H4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="I4" t="n">
-        <v>24403.50379676134</v>
+        <v>24403.50379676133</v>
       </c>
       <c r="J4" t="n">
         <v>24403.50379676133</v>
@@ -26445,19 +26447,19 @@
         <v>24403.50379676134</v>
       </c>
       <c r="L4" t="n">
-        <v>24403.50379676133</v>
+        <v>24403.50379676134</v>
       </c>
       <c r="M4" t="n">
-        <v>20610.6266954053</v>
+        <v>20610.62669540531</v>
       </c>
       <c r="N4" t="n">
         <v>20610.6266954053</v>
       </c>
       <c r="O4" t="n">
+        <v>20610.6266954053</v>
+      </c>
+      <c r="P4" t="n">
         <v>20610.62669540529</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20610.6266954053</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144555.7743185306</v>
+        <v>144555.7743185308</v>
       </c>
       <c r="C6" t="n">
         <v>144555.7743185307</v>
       </c>
       <c r="D6" t="n">
-        <v>144555.7743185305</v>
+        <v>144555.7743185307</v>
       </c>
       <c r="E6" t="n">
         <v>-551401.0597165804</v>
       </c>
       <c r="F6" t="n">
-        <v>373250.5196595434</v>
+        <v>373250.5196595436</v>
       </c>
       <c r="G6" t="n">
-        <v>373250.5196595436</v>
+        <v>373250.5196595435</v>
       </c>
       <c r="H6" t="n">
         <v>373250.5196595434</v>
       </c>
       <c r="I6" t="n">
-        <v>369979.957012761</v>
+        <v>369979.9570127609</v>
       </c>
       <c r="J6" t="n">
-        <v>374875.3962834096</v>
+        <v>374875.3962834093</v>
       </c>
       <c r="K6" t="n">
-        <v>374875.3962834094</v>
+        <v>374875.3962834095</v>
       </c>
       <c r="L6" t="n">
-        <v>374875.3962834094</v>
+        <v>374875.3962834095</v>
       </c>
       <c r="M6" t="n">
-        <v>222653.1814126844</v>
+        <v>222653.1814126849</v>
       </c>
       <c r="N6" t="n">
-        <v>373250.5196595433</v>
+        <v>373250.5196595436</v>
       </c>
       <c r="O6" t="n">
-        <v>373250.5196595434</v>
+        <v>373250.5196595435</v>
       </c>
       <c r="P6" t="n">
-        <v>373250.5196595434</v>
+        <v>373250.5196595435</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="F3" t="n">
-        <v>919.489014607487</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074872</v>
@@ -26796,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26823,7 +26825,7 @@
         <v>622.7228616087746</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="O4" t="n">
         <v>622.7228616087745</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831629</v>
+        <v>18.40937447831607</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304593</v>
+        <v>604.3134871304577</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451828</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321118</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.730575893637</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025211</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861146</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857303</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404914</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515573</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.196389201357</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454518</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956948</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610803</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755601</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623806</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130261</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096891</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153587</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32148,10 +32150,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
-        <v>14.7419714145266</v>
+        <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445193</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
@@ -32160,34 +32162,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.5134974572269</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258507</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604563</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920854</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598667</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040865</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577528</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P12" t="n">
-        <v>392.034832891923</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322455</v>
+        <v>301.1636964467323</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669507</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161274</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891394</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188046</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962878</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R14" t="n">
-        <v>16.6108513872249</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>294.6055490198335</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087746</v>
+        <v>601.6700257167578</v>
       </c>
       <c r="N15" t="n">
-        <v>622.7228616087746</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179362</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986959</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963964</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058009</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876913</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396849</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.8176059917459</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703315</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158207</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="M18" t="n">
         <v>358.9874790390621</v>
@@ -35975,13 +35977,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>337.9332079389935</v>
+        <v>480.6258843944683</v>
       </c>
       <c r="P18" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R18" t="n">
         <v>22.637321420787</v>
@@ -36142,7 +36144,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>424.9372550783127</v>
+        <v>300.2644154702823</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
-        <v>622.7228616087745</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O21" t="n">
         <v>327.9652704179363</v>
@@ -36221,7 +36223,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>420.4529489191571</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
         <v>418.7159795815592</v>
@@ -36376,7 +36378,7 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>249.7617409635316</v>
       </c>
       <c r="R23" t="n">
         <v>16.61085138722495</v>
@@ -36437,10 +36439,10 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K24" t="n">
-        <v>181.5248539577529</v>
+        <v>420.4662323903308</v>
       </c>
       <c r="L24" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390621</v>
@@ -36449,16 +36451,16 @@
         <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7475161399686</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q24" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815592</v>
+        <v>425.8932445116062</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
@@ -36616,7 +36618,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722495</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K27" t="n">
         <v>181.5248539577529</v>
@@ -36680,22 +36682,22 @@
         <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>602.8606244561062</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
         <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179363</v>
+        <v>566.9066488505142</v>
       </c>
       <c r="P27" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,10 +36837,10 @@
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161275</v>
+        <v>420.4529489191571</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845887</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>77.18830519559663</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
-        <v>243.692693698696</v>
+        <v>559.2689251794196</v>
       </c>
       <c r="Q30" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R30" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669508</v>
+        <v>205.5783561699803</v>
       </c>
       <c r="K32" t="n">
         <v>250.1109559575407</v>
@@ -37078,7 +37080,7 @@
         <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
-        <v>503.0453391921691</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
@@ -37157,7 +37159,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>626.916141609271</v>
+        <v>465.9046185163143</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179363</v>
@@ -37169,7 +37171,7 @@
         <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>430.1516543891395</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962877</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605023</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063825</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8669931509804</v>
+        <v>347.5725475873014</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158207</v>
@@ -37400,10 +37402,10 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386331</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R36" t="n">
         <v>22.63732142078699</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669506</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575406</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063825</v>
+        <v>117.4087856038495</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9900909703314</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
@@ -37631,19 +37633,19 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>337.6468836151938</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669502</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575406</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577528</v>
+        <v>300.2644154702817</v>
       </c>
       <c r="L42" t="n">
-        <v>622.7228616087745</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
         <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>396.3533076752273</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
         <v>112.4786813963965</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
         <v>181.5248539577528</v>
@@ -38102,22 +38104,22 @@
         <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="N45" t="n">
-        <v>595.4331886916611</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O45" t="n">
-        <v>622.7228616087745</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>338.3767380580598</v>
       </c>
       <c r="Q45" t="n">
         <v>112.4786813963965</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1811174.175785898</v>
+        <v>1838639.519750899</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584558</v>
+        <v>6486630.972584559</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8065189.102018278</v>
+        <v>8065189.102018277</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>64.68182849139821</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>49.60994627762233</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>86.20197997995264</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.368165235535</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>77.22810184760127</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>99.64164893625818</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>67.96895394968161</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>132.6723612847852</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>12.66785967403062</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>73.6261119179357</v>
       </c>
       <c r="G15" t="n">
-        <v>63.92264786389057</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172582</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>35.11921560169388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>122.1110471913901</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>178.862275941696</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>59.72868255154145</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>63.92264786389057</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172582</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>84.8062813898859</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.73681477135624</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>13.19596086065407</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>385.3311484327032</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.578331304219715</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627849</v>
       </c>
       <c r="I21" t="n">
         <v>21.30239922246435</v>
@@ -2216,7 +2216,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U21" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.98084481717986</v>
       </c>
       <c r="G22" t="n">
-        <v>24.42467794890959</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>16.28109064310402</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.6448339692432</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8112657109832</v>
+        <v>225.8112657109831</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>77.22810184760124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>144.872036309577</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>355.7001860642121</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>162.514863384084</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246427</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>66.39321353644048</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.54765966443192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>130.9973195473291</v>
       </c>
       <c r="V29" t="n">
-        <v>148.9903857293489</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>59.82727685022437</v>
       </c>
       <c r="X31" t="n">
-        <v>169.7612216709052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>81.02143177966681</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>65.24351298098975</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3657483393383</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
         <v>93.13436112172582</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.1018059826251</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>179.200458828549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>134.6140357362137</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.42572380469515</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>76.00196508919049</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3401,7 +3401,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>77.22810184760125</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>118.2617036439762</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>77.54728525390036</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>138.9287518061357</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>95.09008317441915</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>73.6261119179357</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.3657483393379</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.669320816263467</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>177.9788148489921</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>95.00823514637422</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>135.2782424330179</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627849</v>
       </c>
       <c r="I42" t="n">
         <v>21.30239922246435</v>
@@ -3878,7 +3878,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V42" t="n">
-        <v>161.3574866739771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>36.66466901872653</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>218.7421947805082</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>206.1096043932735</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.87092554779107</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635361</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>99.63249188791528</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>84.81869281241448</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1159.344962274298</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="C11" t="n">
-        <v>790.3824453338868</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D11" t="n">
-        <v>790.3824453338868</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E11" t="n">
-        <v>404.5941927356426</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F11" t="n">
-        <v>404.5941927356426</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G11" t="n">
-        <v>404.5941927356426</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>99.92888577478516</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
         <v>2002.031077317524</v>
@@ -5068,25 +5068,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326146</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520224</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.252949520224</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="W11" t="n">
-        <v>1549.48429425011</v>
+        <v>1675.532256847787</v>
       </c>
       <c r="X11" t="n">
-        <v>1549.48429425011</v>
+        <v>1302.066498586707</v>
       </c>
       <c r="Y11" t="n">
-        <v>1159.344962274298</v>
+        <v>911.9271666108955</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
         <v>448.6781532488152</v>
@@ -5120,28 +5120,28 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K12" t="n">
-        <v>560.6342506504922</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L12" t="n">
-        <v>848.5985338331548</v>
+        <v>763.7078559446868</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.996138081826</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.208704312131</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O12" t="n">
-        <v>1907.894322025888</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787597</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R12" t="n">
         <v>2490.8914464351</v>
@@ -5153,19 +5153,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.8260126131477</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C13" t="n">
-        <v>127.8260126131477</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D13" t="n">
-        <v>127.8260126131477</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E13" t="n">
         <v>49.81782892870199</v>
@@ -5226,25 +5226,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1412.128928574975</v>
+        <v>1508.572237966282</v>
       </c>
       <c r="T13" t="n">
-        <v>1189.037007424791</v>
+        <v>1285.480316816097</v>
       </c>
       <c r="U13" t="n">
-        <v>899.9172217540125</v>
+        <v>996.3605311453192</v>
       </c>
       <c r="V13" t="n">
-        <v>645.2327335481257</v>
+        <v>741.6760429394324</v>
       </c>
       <c r="W13" t="n">
-        <v>355.8155635111651</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="X13" t="n">
-        <v>127.8260126131477</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.8260126131477</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1635.67674096947</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="C14" t="n">
-        <v>1635.67674096947</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.67674096947</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.888488371226</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F14" t="n">
-        <v>838.9025835816184</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
         <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
         <v>181.1756535819834</v>
@@ -5293,37 +5293,37 @@
         <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T14" t="n">
-        <v>2356.878960288853</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U14" t="n">
-        <v>2356.878960288853</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V14" t="n">
-        <v>2025.816072945282</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="W14" t="n">
-        <v>2025.816072945282</v>
+        <v>1684.442206921774</v>
       </c>
       <c r="X14" t="n">
-        <v>2025.816072945282</v>
+        <v>1310.976448660694</v>
       </c>
       <c r="Y14" t="n">
-        <v>1635.67674096947</v>
+        <v>920.8371166848826</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>675.5961174916491</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L15" t="n">
-        <v>963.5604006743117</v>
+        <v>763.7078559446863</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.958004922983</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N15" t="n">
-        <v>1698.170571153288</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.856188867046</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.111955628755</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.7967594110191</v>
+        <v>455.562992548835</v>
       </c>
       <c r="C16" t="n">
-        <v>515.8605764831123</v>
+        <v>455.562992548835</v>
       </c>
       <c r="D16" t="n">
-        <v>365.7439370707766</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="E16" t="n">
-        <v>217.8308434883834</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="F16" t="n">
-        <v>217.8308434883834</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870201</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870201</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
@@ -5469,19 +5469,19 @@
         <v>1412.128928574976</v>
       </c>
       <c r="U16" t="n">
-        <v>1412.128928574976</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="V16" t="n">
-        <v>1376.65497342175</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="W16" t="n">
-        <v>1087.237803384789</v>
+        <v>578.9074846613503</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.237803384789</v>
+        <v>578.9074846613503</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4452242412589</v>
+        <v>455.562992548835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1314.18569835078</v>
+        <v>1396.223468854638</v>
       </c>
       <c r="C17" t="n">
-        <v>945.2231814103684</v>
+        <v>1027.260951914227</v>
       </c>
       <c r="D17" t="n">
-        <v>945.2231814103684</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E17" t="n">
-        <v>945.2231814103684</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F17" t="n">
-        <v>534.2372766207609</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870201</v>
@@ -5530,7 +5530,7 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
         <v>2299.34732796285</v>
@@ -5551,16 +5551,16 @@
         <v>2490.891446435101</v>
       </c>
       <c r="V17" t="n">
-        <v>2430.559443857786</v>
+        <v>2159.82855909153</v>
       </c>
       <c r="W17" t="n">
-        <v>2077.790788587672</v>
+        <v>2159.82855909153</v>
       </c>
       <c r="X17" t="n">
-        <v>1704.325030326592</v>
+        <v>1786.36280083045</v>
       </c>
       <c r="Y17" t="n">
-        <v>1314.18569835078</v>
+        <v>1396.223468854638</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416516</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605246</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992733</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938178</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F18" t="n">
-        <v>229.9788473207028</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I18" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K18" t="n">
-        <v>675.5961174916491</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L18" t="n">
-        <v>963.5604006743117</v>
+        <v>763.7078559446876</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.958004922983</v>
+        <v>1119.105460193359</v>
       </c>
       <c r="N18" t="n">
-        <v>1698.170571153288</v>
+        <v>1498.318026423664</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.856188867046</v>
+        <v>1823.003644137421</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.111955628755</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q18" t="n">
         <v>2490.891446435101</v>
@@ -5621,25 +5621,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957455</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779002</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192151</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960408</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232206</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026674</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.35363626172</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>389.7074725735223</v>
+        <v>534.6801199986835</v>
       </c>
       <c r="C19" t="n">
-        <v>389.7074725735223</v>
+        <v>365.7439370707766</v>
       </c>
       <c r="D19" t="n">
-        <v>364.7207909862938</v>
+        <v>365.7439370707766</v>
       </c>
       <c r="E19" t="n">
-        <v>364.7207909862938</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F19" t="n">
         <v>217.8308434883834</v>
@@ -5673,22 +5673,22 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>899.917221754013</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V19" t="n">
-        <v>899.917221754013</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W19" t="n">
-        <v>610.5000517170524</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X19" t="n">
-        <v>610.5000517170524</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y19" t="n">
-        <v>389.7074725735223</v>
+        <v>534.6801199986835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1604.777885512221</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="C20" t="n">
-        <v>1235.81536857181</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.81536857181</v>
+        <v>1340.686516134087</v>
       </c>
       <c r="E20" t="n">
-        <v>850.0271159735653</v>
+        <v>954.8982635358429</v>
       </c>
       <c r="F20" t="n">
-        <v>439.0412111839577</v>
+        <v>543.9123587462354</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870199</v>
+        <v>128.1484200942589</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799488</v>
+        <v>428.78549997995</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549163</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X20" t="n">
-        <v>1991.377725576343</v>
+        <v>2117.425688174021</v>
       </c>
       <c r="Y20" t="n">
-        <v>1991.377725576343</v>
+        <v>1727.286356198209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
         <v>109.2358024440161</v>
@@ -5837,46 +5837,46 @@
         <v>288.9454078621915</v>
       </c>
       <c r="L21" t="n">
-        <v>576.9096910448542</v>
+        <v>763.7078559446876</v>
       </c>
       <c r="M21" t="n">
-        <v>1193.405324037542</v>
+        <v>1119.105460193359</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.900957030229</v>
+        <v>1498.318026423664</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.586574743986</v>
+        <v>1823.003644137421</v>
       </c>
       <c r="P21" t="n">
-        <v>2375.842341505695</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q21" t="n">
-        <v>2487.196236088128</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.5420431365301</v>
+        <v>978.7897733331396</v>
       </c>
       <c r="C22" t="n">
-        <v>224.6058602086232</v>
+        <v>809.8535904052327</v>
       </c>
       <c r="D22" t="n">
-        <v>74.48922079628744</v>
+        <v>659.7369509928969</v>
       </c>
       <c r="E22" t="n">
-        <v>74.48922079628744</v>
+        <v>511.8238574105038</v>
       </c>
       <c r="F22" t="n">
-        <v>74.48922079628744</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870199</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J22" t="n">
         <v>73.44728005477636</v>
@@ -5916,16 +5916,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5940,22 +5940,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1386.128447054743</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.008661383964</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V22" t="n">
-        <v>842.3241731780776</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="W22" t="n">
-        <v>842.3241731780776</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="X22" t="n">
-        <v>614.3346222800602</v>
+        <v>1381.230817306909</v>
       </c>
       <c r="Y22" t="n">
-        <v>393.5420431365301</v>
+        <v>1160.438238163379</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1199.151275393554</v>
+        <v>1451.694690753047</v>
       </c>
       <c r="C23" t="n">
-        <v>1182.705729289409</v>
+        <v>1082.732173812635</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.705729289409</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.705729289409</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F23" t="n">
-        <v>771.7198244998012</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
         <v>51.29057888696726</v>
@@ -5989,25 +5989,25 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7538958209935</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>437.363742218959</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q23" t="n">
         <v>2483.024945800757</v>
@@ -6016,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>1975.890447433488</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X23" t="n">
-        <v>1975.890447433488</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="Y23" t="n">
-        <v>1585.751115457676</v>
+        <v>1838.294530817169</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737874</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339655</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033209</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
         <v>72.80815385915346</v>
@@ -6068,34 +6068,34 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>549.381070675287</v>
+        <v>634.2717485637554</v>
       </c>
       <c r="L24" t="n">
-        <v>837.3453538579497</v>
+        <v>922.236031746418</v>
       </c>
       <c r="M24" t="n">
-        <v>1192.742958106621</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.955524336926</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.641142050684</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
         <v>2234.084585692265</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696726</v>
+        <v>129.298762571413</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696726</v>
+        <v>129.298762571413</v>
       </c>
       <c r="D25" t="n">
         <v>51.29057888696726</v>
@@ -6147,10 +6147,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K25" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
         <v>514.949801097701</v>
@@ -6180,19 +6180,19 @@
         <v>1190.509757383056</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.174367171362</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V25" t="n">
-        <v>789.4898789654753</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W25" t="n">
-        <v>500.0727089285147</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X25" t="n">
-        <v>272.0831580304974</v>
+        <v>129.298762571413</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.29057888696726</v>
+        <v>129.298762571413</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.828674926796</v>
+        <v>1217.027253215231</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.828674926796</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.828674926796</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E26" t="n">
-        <v>878.0404223285514</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696726</v>
@@ -6229,16 +6229,16 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>437.363742218959</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L26" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M26" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O26" t="n">
         <v>2010.609319556535</v>
@@ -6256,22 +6256,22 @@
         <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.476243239409</v>
+        <v>2274.324554089995</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.890447433488</v>
+        <v>2274.324554089995</v>
       </c>
       <c r="V26" t="n">
-        <v>1975.890447433488</v>
+        <v>1943.261666746425</v>
       </c>
       <c r="W26" t="n">
-        <v>1623.121792163374</v>
+        <v>1590.493011476311</v>
       </c>
       <c r="X26" t="n">
-        <v>1623.121792163374</v>
+        <v>1217.027253215231</v>
       </c>
       <c r="Y26" t="n">
-        <v>1623.121792163374</v>
+        <v>1217.027253215231</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549136</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737866</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125352</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070796</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339647</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033207</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915339</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>549.381070675287</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L27" t="n">
-        <v>837.3453538579497</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.742958106621</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.955524336926</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.641142050684</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6335,7 +6335,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692264</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
@@ -6344,7 +6344,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
-        <v>1516.602933145468</v>
+        <v>1516.602933145469</v>
       </c>
       <c r="X27" t="n">
         <v>1308.751432939936</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>368.2785440455507</v>
+        <v>583.3740324139054</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2785440455507</v>
+        <v>583.3740324139054</v>
       </c>
       <c r="D28" t="n">
-        <v>368.2785440455507</v>
+        <v>433.2573930015697</v>
       </c>
       <c r="E28" t="n">
-        <v>368.2785440455507</v>
+        <v>433.2573930015697</v>
       </c>
       <c r="F28" t="n">
-        <v>368.2785440455507</v>
+        <v>286.3674455036593</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>118.3544309439779</v>
       </c>
       <c r="H28" t="n">
         <v>51.29057888696726</v>
@@ -6384,10 +6384,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
         <v>514.949801097701</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U28" t="n">
-        <v>901.389971712278</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V28" t="n">
-        <v>901.389971712278</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="W28" t="n">
-        <v>611.9728016753174</v>
+        <v>1032.156162455453</v>
       </c>
       <c r="X28" t="n">
-        <v>383.9832507773001</v>
+        <v>804.1666115574355</v>
       </c>
       <c r="Y28" t="n">
-        <v>368.2785440455507</v>
+        <v>583.3740324139054</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1263.828674926796</v>
+        <v>1953.39180168529</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.828674926796</v>
+        <v>1584.429284744878</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.828674926796</v>
+        <v>1226.163586138128</v>
       </c>
       <c r="E29" t="n">
-        <v>878.0404223285514</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0545175389437</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696727</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
         <v>182.6484035402487</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382141</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131807</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M29" t="n">
         <v>1188.870741198924</v>
@@ -6478,37 +6478,37 @@
         <v>1614.720879044173</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.50382727579</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P29" t="n">
         <v>2300.820077921115</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2306.160456955404</v>
       </c>
       <c r="V29" t="n">
-        <v>2414.033605227809</v>
+        <v>2306.160456955404</v>
       </c>
       <c r="W29" t="n">
-        <v>2414.033605227809</v>
+        <v>1953.39180168529</v>
       </c>
       <c r="X29" t="n">
-        <v>2040.567846966729</v>
+        <v>1953.39180168529</v>
       </c>
       <c r="Y29" t="n">
-        <v>1650.428514990917</v>
+        <v>1953.39180168529</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>549.3810706752874</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L30" t="n">
-        <v>837.3453538579502</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M30" t="n">
-        <v>1192.742958106622</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.955524336927</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.641142050684</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.175049765931</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6569,16 +6569,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>474.932117654446</v>
+        <v>665.1464423075133</v>
       </c>
       <c r="C31" t="n">
-        <v>474.932117654446</v>
+        <v>496.2102593796064</v>
       </c>
       <c r="D31" t="n">
-        <v>474.932117654446</v>
+        <v>346.0936199672707</v>
       </c>
       <c r="E31" t="n">
-        <v>474.932117654446</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
         <v>514.949801097701</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="V31" t="n">
-        <v>935.8252691771694</v>
+        <v>1356.008629957305</v>
       </c>
       <c r="W31" t="n">
-        <v>646.4080991402088</v>
+        <v>1295.577037179301</v>
       </c>
       <c r="X31" t="n">
-        <v>474.932117654446</v>
+        <v>1067.587486281283</v>
       </c>
       <c r="Y31" t="n">
-        <v>474.932117654446</v>
+        <v>846.7949071377531</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>901.9195728439915</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C32" t="n">
-        <v>532.9570559035799</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="D32" t="n">
-        <v>532.9570559035799</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="E32" t="n">
-        <v>532.9570559035799</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F32" t="n">
-        <v>532.9570559035799</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G32" t="n">
-        <v>117.1931172516034</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>254.8131514952466</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>502.4229978932121</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681786</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153922</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
         <v>1686.885626999171</v>
@@ -6721,31 +6721,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T32" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.827560089917</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>1292.058904819803</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>1292.058904819803</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y32" t="n">
-        <v>901.9195728439915</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125362</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070807</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339657</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G33" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>677.0688674499144</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L33" t="n">
-        <v>965.033150632577</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M33" t="n">
-        <v>1320.430754881249</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1699.643321111554</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>2024.328938825311</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2265.58470558702</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6806,7 +6806,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S33" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T33" t="n">
         <v>2234.084585692265</v>
@@ -6815,7 +6815,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>515.0298028951777</v>
+        <v>220.2267618148742</v>
       </c>
       <c r="C34" t="n">
-        <v>346.0936199672707</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D34" t="n">
-        <v>346.0936199672707</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1805263848776</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
         <v>514.949801097701</v>
@@ -6888,22 +6888,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.601197013008</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U34" t="n">
         <v>1098.481411342229</v>
       </c>
       <c r="V34" t="n">
-        <v>917.4708468689475</v>
+        <v>843.7969231363421</v>
       </c>
       <c r="W34" t="n">
-        <v>917.4708468689475</v>
+        <v>554.3797530993816</v>
       </c>
       <c r="X34" t="n">
-        <v>917.4708468689475</v>
+        <v>326.3902022013642</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.6782677254174</v>
+        <v>326.3902022013642</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>770.247074541536</v>
+        <v>1714.152274395167</v>
       </c>
       <c r="C35" t="n">
-        <v>770.247074541536</v>
+        <v>1714.152274395167</v>
       </c>
       <c r="D35" t="n">
-        <v>770.247074541536</v>
+        <v>1355.886575788417</v>
       </c>
       <c r="E35" t="n">
-        <v>770.247074541536</v>
+        <v>970.0983231901723</v>
       </c>
       <c r="F35" t="n">
-        <v>770.247074541536</v>
+        <v>559.1124184005648</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2471.269503198034</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T35" t="n">
-        <v>2471.269503198034</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U35" t="n">
-        <v>2217.683707392112</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V35" t="n">
-        <v>1886.620820048542</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W35" t="n">
-        <v>1533.852164778428</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X35" t="n">
-        <v>1160.386406517348</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="Y35" t="n">
-        <v>770.247074541536</v>
+        <v>2100.752114459289</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
         <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964439</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7755328491963</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L36" t="n">
-        <v>701.7398160318589</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M36" t="n">
-        <v>1057.137420280531</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.349986510836</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O36" t="n">
-        <v>1761.035604224593</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.56951193984</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>346.8244158389481</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="C37" t="n">
-        <v>346.8244158389481</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="D37" t="n">
-        <v>196.7077764266124</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="E37" t="n">
-        <v>196.7077764266124</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
         <v>73.44728005477636</v>
@@ -7101,16 +7101,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1386.128447054743</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>1386.128447054743</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.672180747696</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W37" t="n">
-        <v>977.2550107107353</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X37" t="n">
-        <v>749.2654598127179</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y37" t="n">
-        <v>528.4728806691878</v>
+        <v>127.8260126131477</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1573.820201863716</v>
+        <v>1340.686516134086</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.857684923304</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165539</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183096</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
         <v>49.81782892870199</v>
@@ -7174,25 +7174,25 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561747</v>
@@ -7207,19 +7207,19 @@
         <v>2490.8914464351</v>
       </c>
       <c r="U38" t="n">
-        <v>2350.559373903649</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.559373903649</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W38" t="n">
-        <v>2350.559373903649</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="X38" t="n">
-        <v>2350.559373903649</v>
+        <v>2117.42568817402</v>
       </c>
       <c r="Y38" t="n">
-        <v>1960.420041927838</v>
+        <v>1727.286356198208</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
         <v>302.1435952757</v>
@@ -7253,25 +7253,25 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440161</v>
+        <v>166.0525266765133</v>
       </c>
       <c r="K39" t="n">
-        <v>475.7435727620237</v>
+        <v>345.7621320946887</v>
       </c>
       <c r="L39" t="n">
-        <v>763.7078559446863</v>
+        <v>633.7264152773513</v>
       </c>
       <c r="M39" t="n">
-        <v>1119.105460193358</v>
+        <v>989.1240195260229</v>
       </c>
       <c r="N39" t="n">
-        <v>1498.318026423663</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O39" t="n">
-        <v>1823.00364413742</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852667</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q39" t="n">
         <v>2490.8914464351</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.3975106796718</v>
+        <v>980.6616575078316</v>
       </c>
       <c r="C40" t="n">
-        <v>472.3975106796718</v>
+        <v>811.7254745799247</v>
       </c>
       <c r="D40" t="n">
-        <v>472.3975106796718</v>
+        <v>661.6088351675889</v>
       </c>
       <c r="E40" t="n">
-        <v>324.4844170972787</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F40" t="n">
-        <v>324.4844170972787</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G40" t="n">
-        <v>156.4714025375973</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1499.716596428958</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1210.59681075818</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V40" t="n">
-        <v>1210.59681075818</v>
+        <v>1429.443787549379</v>
       </c>
       <c r="W40" t="n">
-        <v>921.1796407212192</v>
+        <v>1429.443787549379</v>
       </c>
       <c r="X40" t="n">
-        <v>693.1900898232019</v>
+        <v>1201.454236651362</v>
       </c>
       <c r="Y40" t="n">
-        <v>472.3975106796718</v>
+        <v>980.6616575078316</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945.2231814103684</v>
+        <v>1727.286356198209</v>
       </c>
       <c r="C41" t="n">
-        <v>945.2231814103684</v>
+        <v>1358.323839257797</v>
       </c>
       <c r="D41" t="n">
-        <v>945.2231814103684</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E41" t="n">
-        <v>945.2231814103684</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F41" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G41" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H41" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326146</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U41" t="n">
-        <v>2155.838745326146</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V41" t="n">
-        <v>1824.775857982575</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W41" t="n">
-        <v>1472.007202712461</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X41" t="n">
-        <v>1335.36251338618</v>
+        <v>2117.425688174021</v>
       </c>
       <c r="Y41" t="n">
-        <v>945.2231814103684</v>
+        <v>1727.286356198209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964439</v>
       </c>
       <c r="K42" t="n">
-        <v>413.7755328491963</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L42" t="n">
-        <v>701.7398160318589</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M42" t="n">
-        <v>1057.137420280531</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.61965251871</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.305270232467</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.561036994176</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>831.6867069089295</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="C43" t="n">
-        <v>662.7505239810226</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="D43" t="n">
-        <v>512.6338845686869</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862938</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J43" t="n">
         <v>73.44728005477636</v>
@@ -7575,16 +7575,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1572.185348994092</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1349.093427843908</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U43" t="n">
-        <v>1349.093427843908</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V43" t="n">
-        <v>1349.093427843908</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W43" t="n">
-        <v>1059.676257806947</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="X43" t="n">
-        <v>831.6867069089295</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="Y43" t="n">
-        <v>831.6867069089295</v>
+        <v>621.3724612785738</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1231.489806114191</v>
+        <v>1188.031949265472</v>
       </c>
       <c r="C44" t="n">
-        <v>862.5272891737791</v>
+        <v>819.06943232506</v>
       </c>
       <c r="D44" t="n">
-        <v>504.2615905670286</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="E44" t="n">
-        <v>118.4733379687844</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870199</v>
@@ -7651,49 +7651,49 @@
         <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2420.314753962583</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T44" t="n">
-        <v>2211.310015451306</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U44" t="n">
-        <v>1957.724219645385</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V44" t="n">
-        <v>1957.724219645385</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="W44" t="n">
-        <v>1604.955564375271</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="X44" t="n">
-        <v>1231.489806114191</v>
+        <v>1786.362800830449</v>
       </c>
       <c r="Y44" t="n">
-        <v>1231.489806114191</v>
+        <v>1396.223468854637</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>413.7755328491963</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L45" t="n">
         <v>871.0094820397335</v>
@@ -7748,10 +7748,10 @@
         <v>2171.561036994176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
         <v>2354.581362957454</v>
@@ -7760,19 +7760,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.3621541941967</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="C46" t="n">
-        <v>748.4259712662898</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="D46" t="n">
-        <v>598.3093318539541</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E46" t="n">
-        <v>450.3962382715609</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F46" t="n">
-        <v>303.5062907736506</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G46" t="n">
-        <v>135.4932762139692</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870199</v>
@@ -7806,22 +7806,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7836,22 +7836,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U46" t="n">
-        <v>1609.220368204927</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V46" t="n">
-        <v>1609.220368204927</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.803198167966</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.803198167966</v>
+        <v>614.3346222800598</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.010619024436</v>
+        <v>614.3346222800598</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>148.3421391932283</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>188.6850150503362</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>188.6850150503356</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.5915113372859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>22.88434839053377</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.6850150503369</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.5915113372859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>188.6850150503369</v>
       </c>
       <c r="M21" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.61688409454598</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.177264930045311</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7.177264930045709</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.5786998533638</v>
+        <v>221.2358239962566</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>7.177264930045339</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>7.177264930045965</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.5786998533638</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.177264930046107</v>
+        <v>72.89368480302818</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.5786998533643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>189.4851961403141</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.89368480302826</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>72.89368480302841</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.485196140314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184632</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.95665828913951</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>57.39063053787599</v>
       </c>
       <c r="K39" t="n">
-        <v>188.6850150503355</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.6798654165478</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184632</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9794606140147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L45" t="n">
-        <v>170.9794606140147</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>318.0520131720824</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>18.35900767205931</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>71.4431004754483</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544823</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>69.2058607989679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,7 +23466,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>95.47887629739355</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>74.24232984137919</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>336.5731090433824</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
       <c r="G15" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>217.0184277221341</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.4736061607047</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>175.820765678987</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>268.0235759185935</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>50.14070125298298</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.8786582468561</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>205.3886924914407</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>26.27515083275352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>292.0403225870292</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>107.4402032057514</v>
       </c>
       <c r="G22" t="n">
-        <v>141.908206465175</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>348.9918011279035</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.0382076514397</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>71.38737117061112</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>141.3565515044935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27.03365559926846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>44.39982774208039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>81.09198755647249</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24651,10 +24651,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.0369936876629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>120.0526183005331</v>
       </c>
       <c r="V29" t="n">
-        <v>178.761872740786</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>226.6957214863666</v>
       </c>
       <c r="X31" t="n">
-        <v>55.94843371813192</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>284.2514599913408</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>236.3751409102591</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.73017419931216</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>72.93718449527896</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>276.992263529243</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>105.3617591670049</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>71.44310047544826</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>69.20586079896792</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -25362,16 +25362,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.8759396798518</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>287.7256065171072</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>112.1211860417265</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>71.44310047544819</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>215.1916811224193</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>74.15882847483587</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>259.6748064743088</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>234.4528582454511</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>158.4558562149252</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>6.967460608528938</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>176.6242372702071</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -25885,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.91655742390903</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>50.14070125298431</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>80.19948829402202</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>62.66650828049849</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26076,22 +26076,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622459.4348678645</v>
+        <v>622459.4348678644</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622459.4348678641</v>
+        <v>622459.4348678644</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634955.0306829059</v>
+        <v>634955.0306829057</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622459.4348678642</v>
+        <v>622459.4348678644</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622459.4348678641</v>
+        <v>622459.4348678644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622459.4348678641</v>
+        <v>622459.434867864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
-        <v>451767.5568592055</v>
+        <v>451767.5568592054</v>
       </c>
       <c r="F2" t="n">
         <v>451767.5568592057</v>
       </c>
       <c r="G2" t="n">
-        <v>451767.5568592057</v>
+        <v>451767.5568592056</v>
       </c>
       <c r="H2" t="n">
-        <v>451767.5568592055</v>
+        <v>451767.5568592056</v>
       </c>
       <c r="I2" t="n">
-        <v>458304.6005527091</v>
+        <v>458304.600552709</v>
       </c>
       <c r="J2" t="n">
-        <v>458304.6005527092</v>
+        <v>458304.600552709</v>
       </c>
       <c r="K2" t="n">
         <v>458304.6005527091</v>
       </c>
       <c r="L2" t="n">
-        <v>458304.6005527092</v>
+        <v>458304.6005527091</v>
       </c>
       <c r="M2" t="n">
         <v>451767.5568592056</v>
       </c>
       <c r="N2" t="n">
+        <v>451767.5568592056</v>
+      </c>
+      <c r="O2" t="n">
         <v>451767.5568592055</v>
       </c>
-      <c r="O2" t="n">
-        <v>451767.5568592057</v>
-      </c>
       <c r="P2" t="n">
-        <v>451767.5568592057</v>
+        <v>451767.5568592054</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648166</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>20610.62669540531</v>
       </c>
       <c r="F4" t="n">
+        <v>20610.6266954053</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20610.62669540533</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20610.62669540533</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24403.50379676128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24403.50379676129</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24403.50379676128</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24403.50379676129</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20610.62669540533</v>
+      </c>
+      <c r="N4" t="n">
         <v>20610.62669540531</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
+        <v>20610.62669540533</v>
+      </c>
+      <c r="P4" t="n">
         <v>20610.62669540531</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20610.6266954053</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24403.50379676126</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24403.50379676126</v>
-      </c>
-      <c r="K4" t="n">
-        <v>24403.50379676129</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24403.50379676128</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20610.6266954053</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20610.6266954053</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20610.6266954053</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20610.6266954053</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425675</v>
@@ -26496,22 +26496,22 @@
         <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253835</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253835</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
         <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="O5" t="n">
         <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144511.6385398492</v>
+        <v>144551.3607406624</v>
       </c>
       <c r="C6" t="n">
-        <v>144511.6385398495</v>
+        <v>144551.3607406624</v>
       </c>
       <c r="D6" t="n">
-        <v>144511.6385398494</v>
+        <v>144551.3607406623</v>
       </c>
       <c r="E6" t="n">
-        <v>-556868.1854012141</v>
+        <v>-551947.772285044</v>
       </c>
       <c r="F6" t="n">
-        <v>367783.3939749099</v>
+        <v>372703.8070910801</v>
       </c>
       <c r="G6" t="n">
-        <v>367783.39397491</v>
+        <v>372703.8070910802</v>
       </c>
       <c r="H6" t="n">
-        <v>367783.39397491</v>
+        <v>372703.8070910802</v>
       </c>
       <c r="I6" t="n">
-        <v>364730.7327845778</v>
+        <v>369455.0345899429</v>
       </c>
       <c r="J6" t="n">
-        <v>369626.1720552262</v>
+        <v>374350.473860591</v>
       </c>
       <c r="K6" t="n">
-        <v>369626.172055226</v>
+        <v>374350.4738605912</v>
       </c>
       <c r="L6" t="n">
-        <v>369626.1720552262</v>
+        <v>374350.4738605911</v>
       </c>
       <c r="M6" t="n">
-        <v>217186.0557280511</v>
+        <v>222106.4688442212</v>
       </c>
       <c r="N6" t="n">
-        <v>367783.39397491</v>
+        <v>372703.8070910802</v>
       </c>
       <c r="O6" t="n">
-        <v>367783.3939749101</v>
+        <v>372703.8070910801</v>
       </c>
       <c r="P6" t="n">
-        <v>367783.3939749101</v>
+        <v>372703.80709108</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087751</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26816,22 +26816,22 @@
         <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831561</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.313487130459</v>
+        <v>604.3134871304592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
@@ -32238,7 +32238,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
         <v>583.325679086115</v>
@@ -32247,22 +32247,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O17" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796694</v>
@@ -32317,22 +32317,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268526</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32475,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32484,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32554,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
@@ -32712,7 +32712,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
         <v>583.325679086115</v>
@@ -32721,22 +32721,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32791,22 +32791,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
@@ -32949,7 +32949,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
         <v>583.325679086115</v>
@@ -32958,22 +32958,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33028,22 +33028,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
@@ -33186,7 +33186,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
         <v>583.325679086115</v>
@@ -33195,22 +33195,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33265,22 +33265,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
@@ -33423,7 +33423,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
         <v>583.325679086115</v>
@@ -33432,22 +33432,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33502,22 +33502,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
@@ -33660,7 +33660,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
         <v>583.325679086115</v>
@@ -33669,22 +33669,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796694</v>
@@ -33739,22 +33739,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
         <v>200.5390467268526</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
@@ -33897,7 +33897,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
         <v>583.325679086115</v>
@@ -33906,22 +33906,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796694</v>
@@ -33976,22 +33976,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
         <v>200.5390467268526</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
@@ -34134,7 +34134,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
         <v>583.325679086115</v>
@@ -34143,22 +34143,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O41" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796694</v>
@@ -34213,22 +34213,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
         <v>200.5390467268526</v>
@@ -34313,16 +34313,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8669931509812</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>479.558028366157</v>
       </c>
       <c r="M12" t="n">
         <v>358.9874790390622</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>479.5580283661564</v>
       </c>
       <c r="M15" t="n">
         <v>358.9874790390624</v>
@@ -35743,10 +35743,10 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.0701927336825</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L17" t="n">
         <v>347.5592641161277</v>
@@ -35895,19 +35895,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O17" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158209</v>
+        <v>479.5580283661577</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.0701927336825</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,7 +36050,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
         <v>297.8659196396851</v>
@@ -36062,7 +36062,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36132,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K21" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158209</v>
+        <v>479.5580283661577</v>
       </c>
       <c r="M21" t="n">
-        <v>622.7228616087749</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q21" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>3.732535704012212</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36299,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.8619362969962</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161277</v>
@@ -36369,19 +36369,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605026</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>443.1035538111169</v>
+        <v>402.7606779540095</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,7 +36524,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36536,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>257.2882208875862</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
         <v>347.5592641161277</v>
@@ -36606,19 +36606,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
-        <v>392.710048718805</v>
+        <v>399.8873136488509</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1035538111169</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,7 +36761,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36773,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
         <v>347.5592641161277</v>
@@ -36843,19 +36843,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>184.0453210905487</v>
+        <v>249.7617409635307</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020748</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>443.1035538111173</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>301.9638775367106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,7 +36998,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37010,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>205.5783561699792</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161277</v>
@@ -37080,19 +37080,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891399</v>
+        <v>503.0453391921682</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703316</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9638775367106</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,7 +37235,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37247,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161277</v>
@@ -37317,19 +37317,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063827</v>
+        <v>92.6234140078201</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4353396855361</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,7 +37472,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
         <v>297.8659196396851</v>
@@ -37484,7 +37484,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161277</v>
@@ -37554,19 +37554,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O38" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597381</v>
+        <v>117.4087856038498</v>
       </c>
       <c r="K39" t="n">
-        <v>370.2098690080885</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,7 +37709,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
         <v>297.8659196396851</v>
@@ -37721,7 +37721,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L41" t="n">
         <v>347.5592641161277</v>
@@ -37791,19 +37791,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O41" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063827</v>
+        <v>92.6234140078201</v>
       </c>
       <c r="K42" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N42" t="n">
-        <v>554.0224568062418</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,7 +37946,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
         <v>297.8659196396851</v>
@@ -37958,7 +37958,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L45" t="n">
-        <v>461.8524739298356</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
         <v>243.6926936986961</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N46" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
